--- a/output/utskrift_2020-06-14/A/Mellanklass ind skritt/6Tyra Normark Momquist_A_klass16_Kür_Easy Fly af Björnklo_Su.xlsx
+++ b/output/utskrift_2020-06-14/A/Mellanklass ind skritt/6Tyra Normark Momquist_A_klass16_Kür_Easy Fly af Björnklo_Su.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>Information</x:t>
   </x:si>
@@ -696,6 +696,9 @@
   </x:si>
   <x:si>
     <x:t>Föreningen Uppsala Voltige</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blå8</x:t>
   </x:si>
   <x:si>
     <x:t>SE</x:t>
@@ -3231,7 +3234,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -3425,7 +3428,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -3530,7 +3533,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -3554,10 +3557,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -3635,7 +3638,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -3656,7 +3659,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -7899,7 +7902,9 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="J7" s="137" t="s"/>
-      <x:c r="K7" s="138" t="s"/>
+      <x:c r="K7" s="138" t="s">
+        <x:v>145</x:v>
+      </x:c>
       <x:c r="L7" s="135" t="s"/>
     </x:row>
     <x:row r="8" spans="1:12" customFormat="1" ht="17.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7908,7 +7913,7 @@
       </x:c>
       <x:c r="B8" s="2" t="s"/>
       <x:c r="C8" s="40" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s"/>
       <x:c r="E8" s="40" t="s"/>
@@ -7920,7 +7925,7 @@
       </x:c>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="158" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D9" s="158" t="s"/>
       <x:c r="E9" s="158" t="s"/>
@@ -7932,7 +7937,7 @@
       </x:c>
       <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="158" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D10" s="158" t="s"/>
       <x:c r="E10" s="158" t="s"/>
@@ -8020,7 +8025,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -8127,7 +8132,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -8151,10 +8156,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -8232,7 +8237,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -8253,7 +8258,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -8328,7 +8333,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B39" s="41" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C39" s="41" t="s"/>
       <x:c r="D39" s="41" t="s"/>
@@ -8434,7 +8439,7 @@
     <x:row r="1" spans="1:13" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:13" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s"/>
       <x:c r="I2" s="7" t="s">
@@ -8760,7 +8765,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
